--- a/Output/Taxons_associes_bonne_qualite_2019.xlsx
+++ b/Output/Taxons_associes_bonne_qualite_2019.xlsx
@@ -1,163 +1,170 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilona.garcia\Documents\RstudioGIT\Etudebiophysico\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6697A2-99CC-4BA4-AE74-5BC90FFC2E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t xml:space="preserve">LibelleTaxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ithytrichia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habroleptoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epeorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elmis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dupophilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dupophilus brevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhithrogena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leuctra geniculata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euleuctra geniculata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euleuctra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinocras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocyphon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrometra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptocerus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brychius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brychius elevatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beraeodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beraeodes minutus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crunoecia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potamopyrgus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potamopyrgus antipodarum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wormaldia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimarra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protonemura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasiocephala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lepidostoma basale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasiocephala basalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macronychus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raptobaetopus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratiomyidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micrasema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheumatopsyche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxyethira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossosoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glossosomatinae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torleya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philopotamus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helichus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomatinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agraylea</t>
+    <t>LibelleTaxon</t>
+  </si>
+  <si>
+    <t>Ithytrichia</t>
+  </si>
+  <si>
+    <t>Esolus</t>
+  </si>
+  <si>
+    <t>Habroleptoides</t>
+  </si>
+  <si>
+    <t>Epeorus</t>
+  </si>
+  <si>
+    <t>Elmis</t>
+  </si>
+  <si>
+    <t>Silo</t>
+  </si>
+  <si>
+    <t>Dupophilus</t>
+  </si>
+  <si>
+    <t>Dupophilus brevis</t>
+  </si>
+  <si>
+    <t>Adicella</t>
+  </si>
+  <si>
+    <t>Rhithrogena</t>
+  </si>
+  <si>
+    <t>Leuctra geniculata</t>
+  </si>
+  <si>
+    <t>Euleuctra geniculata</t>
+  </si>
+  <si>
+    <t>Euleuctra</t>
+  </si>
+  <si>
+    <t>Dinocras</t>
+  </si>
+  <si>
+    <t>Radix</t>
+  </si>
+  <si>
+    <t>Hydrocyphon</t>
+  </si>
+  <si>
+    <t>Hydrometra</t>
+  </si>
+  <si>
+    <t>Leptocerus</t>
+  </si>
+  <si>
+    <t>Brychius</t>
+  </si>
+  <si>
+    <t>Brychius elevatus</t>
+  </si>
+  <si>
+    <t>Beraeodes</t>
+  </si>
+  <si>
+    <t>Beraeodes minutus</t>
+  </si>
+  <si>
+    <t>Crunoecia</t>
+  </si>
+  <si>
+    <t>Potamopyrgus</t>
+  </si>
+  <si>
+    <t>Potamopyrgus antipodarum</t>
+  </si>
+  <si>
+    <t>Wormaldia</t>
+  </si>
+  <si>
+    <t>Chimarra</t>
+  </si>
+  <si>
+    <t>Protonemura</t>
+  </si>
+  <si>
+    <t>Lasiocephala</t>
+  </si>
+  <si>
+    <t>Lepidostoma basale</t>
+  </si>
+  <si>
+    <t>Lasiocephala basalis</t>
+  </si>
+  <si>
+    <t>Macronychus</t>
+  </si>
+  <si>
+    <t>Raptobaetopus</t>
+  </si>
+  <si>
+    <t>Stratiomyidae</t>
+  </si>
+  <si>
+    <t>Micrasema</t>
+  </si>
+  <si>
+    <t>Cheumatopsyche</t>
+  </si>
+  <si>
+    <t>Oxyethira</t>
+  </si>
+  <si>
+    <t>Setodes</t>
+  </si>
+  <si>
+    <t>Glossosoma</t>
+  </si>
+  <si>
+    <t>Glossosomatinae</t>
+  </si>
+  <si>
+    <t>Torleya</t>
+  </si>
+  <si>
+    <t>Philopotamus</t>
+  </si>
+  <si>
+    <t>Helichus</t>
+  </si>
+  <si>
+    <t>Pomatinus</t>
+  </si>
+  <si>
+    <t>Agraylea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,6 +200,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,245 +490,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>